--- a/Code/Results/Cases/Case_5_121/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_121/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8767561954633436</v>
+        <v>0.4002345243970353</v>
       </c>
       <c r="C2">
-        <v>0.1022085525067666</v>
+        <v>0.02923790351773903</v>
       </c>
       <c r="D2">
-        <v>0.1380814871880887</v>
+        <v>0.1684952640468538</v>
       </c>
       <c r="E2">
-        <v>0.09929593282086557</v>
+        <v>0.1558357427434167</v>
       </c>
       <c r="F2">
-        <v>0.8192372146985747</v>
+        <v>1.589051218795767</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1007206253598412</v>
+        <v>0.1840581092675535</v>
       </c>
       <c r="K2">
-        <v>0.8835705325064112</v>
+        <v>0.3524572108632924</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3193299365818874</v>
+        <v>0.2310193804042413</v>
       </c>
       <c r="N2">
-        <v>0.9247310960060959</v>
+        <v>1.941613291518943</v>
       </c>
       <c r="O2">
-        <v>1.945353665385312</v>
+        <v>3.949852420747902</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7617518386747406</v>
+        <v>0.3678260096117185</v>
       </c>
       <c r="C3">
-        <v>0.09034400476853932</v>
+        <v>0.02554740063324346</v>
       </c>
       <c r="D3">
-        <v>0.1234987968371541</v>
+        <v>0.1653073817915782</v>
       </c>
       <c r="E3">
-        <v>0.0915164184321462</v>
+        <v>0.154639316785449</v>
       </c>
       <c r="F3">
-        <v>0.7930223516576547</v>
+        <v>1.592261207634138</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.09548066561083601</v>
+        <v>0.1838083673130768</v>
       </c>
       <c r="K3">
-        <v>0.7675394486577716</v>
+        <v>0.3189940532912203</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2795985678679074</v>
+        <v>0.2208632601735161</v>
       </c>
       <c r="N3">
-        <v>0.9684449836921489</v>
+        <v>1.960455524992244</v>
       </c>
       <c r="O3">
-        <v>1.912049924261623</v>
+        <v>3.966629397327239</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6913802399800488</v>
+        <v>0.348042742285628</v>
       </c>
       <c r="C4">
-        <v>0.08305195227269735</v>
+        <v>0.02327198865255298</v>
       </c>
       <c r="D4">
-        <v>0.1146337808657023</v>
+        <v>0.1634166907768702</v>
       </c>
       <c r="E4">
-        <v>0.08684321662614636</v>
+        <v>0.1539715075598131</v>
       </c>
       <c r="F4">
-        <v>0.7782243748658217</v>
+        <v>1.59496774858335</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0924008836256931</v>
+        <v>0.1837366976299393</v>
       </c>
       <c r="K4">
-        <v>0.6964572113007534</v>
+        <v>0.2985130855273468</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2553673037791242</v>
+        <v>0.2147240888940054</v>
       </c>
       <c r="N4">
-        <v>0.9964196806609174</v>
+        <v>1.972615078615124</v>
       </c>
       <c r="O4">
-        <v>1.894975864148478</v>
+        <v>3.978778437857088</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6627531146759793</v>
+        <v>0.3400104637549646</v>
       </c>
       <c r="C5">
-        <v>0.08007771164461985</v>
+        <v>0.02234241728484676</v>
       </c>
       <c r="D5">
-        <v>0.1110420204926896</v>
+        <v>0.1626630749417899</v>
       </c>
       <c r="E5">
-        <v>0.08496347892725353</v>
+        <v>0.1537162120047739</v>
       </c>
       <c r="F5">
-        <v>0.7725066788027846</v>
+        <v>1.596255840223357</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.09117880999460937</v>
+        <v>0.1837280565282029</v>
       </c>
       <c r="K5">
-        <v>0.6675207963176604</v>
+        <v>0.2901838747440024</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2455296841864545</v>
+        <v>0.2122468196736911</v>
       </c>
       <c r="N5">
-        <v>1.008098691272502</v>
+        <v>1.977718665748937</v>
       </c>
       <c r="O5">
-        <v>1.888832082413145</v>
+        <v>3.98419421570226</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6580023076055852</v>
+        <v>0.338678509479081</v>
       </c>
       <c r="C6">
-        <v>0.0795836556670082</v>
+        <v>0.02218792381748358</v>
       </c>
       <c r="D6">
-        <v>0.1104468247557833</v>
+        <v>0.1625389582756469</v>
       </c>
       <c r="E6">
-        <v>0.08465279826407368</v>
+        <v>0.1536748389023401</v>
       </c>
       <c r="F6">
-        <v>0.7715757483490435</v>
+        <v>1.596480915109083</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0909778301844355</v>
+        <v>0.1837278645595859</v>
       </c>
       <c r="K6">
-        <v>0.6627174558947786</v>
+        <v>0.2888018531401286</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2438982538829677</v>
+        <v>0.2118369553211537</v>
       </c>
       <c r="N6">
-        <v>1.010054665513257</v>
+        <v>1.978575080459959</v>
       </c>
       <c r="O6">
-        <v>1.887860098759006</v>
+        <v>3.985121591112929</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6909939765805859</v>
+        <v>0.3479342958412701</v>
       </c>
       <c r="C7">
-        <v>0.08301185254202892</v>
+        <v>0.02325946146797264</v>
       </c>
       <c r="D7">
-        <v>0.1145852588542198</v>
+        <v>0.1634064588824202</v>
       </c>
       <c r="E7">
-        <v>0.08681776788256101</v>
+        <v>0.1539679963023488</v>
       </c>
       <c r="F7">
-        <v>0.7781460160937357</v>
+        <v>1.594984370313128</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09238427095036172</v>
+        <v>0.183736497789539</v>
       </c>
       <c r="K7">
-        <v>0.6960668558513277</v>
+        <v>0.2984006856286925</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2552344867993561</v>
+        <v>0.2146905801785195</v>
       </c>
       <c r="N7">
-        <v>0.9965760656953124</v>
+        <v>1.9726833061952</v>
       </c>
       <c r="O7">
-        <v>1.894889755411256</v>
+        <v>3.978849594025604</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8370458148091018</v>
+        <v>0.3890363294032682</v>
       </c>
       <c r="C8">
-        <v>0.09811860375086212</v>
+        <v>0.02796740286041199</v>
       </c>
       <c r="D8">
-        <v>0.1330339957370796</v>
+        <v>0.1673822942558871</v>
       </c>
       <c r="E8">
-        <v>0.09659122981896928</v>
+        <v>0.1554093764510824</v>
       </c>
       <c r="F8">
-        <v>0.8099204005041969</v>
+        <v>1.590005457046161</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09888432628712707</v>
+        <v>0.183955063070151</v>
       </c>
       <c r="K8">
-        <v>0.843523074694815</v>
+        <v>0.3409057801355004</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3055937962883348</v>
+        <v>0.2274975727689679</v>
       </c>
       <c r="N8">
-        <v>0.9395644866653123</v>
+        <v>1.94798758287069</v>
       </c>
       <c r="O8">
-        <v>1.933148846875696</v>
+        <v>3.955253747855977</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.125901105336396</v>
+        <v>0.4705386873024793</v>
       </c>
       <c r="C9">
-        <v>0.1277291320981249</v>
+        <v>0.03712315462128402</v>
       </c>
       <c r="D9">
-        <v>0.1699909067733785</v>
+        <v>0.1757046279796555</v>
       </c>
       <c r="E9">
-        <v>0.1166443793642493</v>
+        <v>0.1587643007657995</v>
       </c>
       <c r="F9">
-        <v>0.8831880497787665</v>
+        <v>1.586071765778328</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1128006031125324</v>
+        <v>0.185030718789605</v>
       </c>
       <c r="K9">
-        <v>1.134474167314892</v>
+        <v>0.4247618543170972</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4058638957179497</v>
+        <v>0.2533735112605697</v>
       </c>
       <c r="N9">
-        <v>0.8370503741588093</v>
+        <v>1.904241703089235</v>
       </c>
       <c r="O9">
-        <v>2.036594811870401</v>
+        <v>3.92363511658138</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.340417335306995</v>
+        <v>0.5309518586556692</v>
       </c>
       <c r="C10">
-        <v>0.1495417914811839</v>
+        <v>0.04380158918951338</v>
       </c>
       <c r="D10">
-        <v>0.1977294172321535</v>
+        <v>0.1821358201214025</v>
       </c>
       <c r="E10">
-        <v>0.1320173303581988</v>
+        <v>0.1615494938844044</v>
       </c>
       <c r="F10">
-        <v>0.94466959933699</v>
+        <v>1.586728821723739</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.123853472893245</v>
+        <v>0.1862144641841397</v>
       </c>
       <c r="K10">
-        <v>1.350098601420285</v>
+        <v>0.4866621576779266</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4807787817735587</v>
+        <v>0.2728428026373919</v>
       </c>
       <c r="N10">
-        <v>0.7678085731866178</v>
+        <v>1.874952586932143</v>
       </c>
       <c r="O10">
-        <v>2.132343567484185</v>
+        <v>3.90932835186797</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.43869557678326</v>
+        <v>0.5585481322935095</v>
       </c>
       <c r="C11">
-        <v>0.1594935053714721</v>
+        <v>0.04682898100931254</v>
       </c>
       <c r="D11">
-        <v>0.2105020366138319</v>
+        <v>0.1851295761479719</v>
       </c>
       <c r="E11">
-        <v>0.1391732093928297</v>
+        <v>0.1628857550421579</v>
       </c>
       <c r="F11">
-        <v>0.9745304423594234</v>
+        <v>1.587796632561066</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1290889597861593</v>
+        <v>0.1868382272289253</v>
       </c>
       <c r="K11">
-        <v>1.448780543723501</v>
+        <v>0.5148824520861126</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5152068556903302</v>
+        <v>0.2817982479464192</v>
       </c>
       <c r="N11">
-        <v>0.7377258764040127</v>
+        <v>1.862246525303703</v>
       </c>
       <c r="O11">
-        <v>2.180763240858283</v>
+        <v>3.904755804067861</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.476027385688639</v>
+        <v>0.5690141187568827</v>
       </c>
       <c r="C12">
-        <v>0.1632675377575907</v>
+        <v>0.04797380137172524</v>
       </c>
       <c r="D12">
-        <v>0.215363156057137</v>
+        <v>0.1862729574668691</v>
       </c>
       <c r="E12">
-        <v>0.1419083917815627</v>
+        <v>0.1634016835525749</v>
       </c>
       <c r="F12">
-        <v>0.986130511575837</v>
+        <v>1.588311408281854</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1311037547899474</v>
+        <v>0.187086669728437</v>
       </c>
       <c r="K12">
-        <v>1.486250211273813</v>
+        <v>0.5255771964204143</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5283007423665396</v>
+        <v>0.2852035000611934</v>
       </c>
       <c r="N12">
-        <v>0.7265468428672301</v>
+        <v>1.857523878761639</v>
       </c>
       <c r="O12">
-        <v>2.199848884721291</v>
+        <v>3.903302457282109</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.46798188446877</v>
+        <v>0.5667593834730269</v>
       </c>
       <c r="C13">
-        <v>0.1624544633838241</v>
+        <v>0.04772731527637575</v>
       </c>
       <c r="D13">
-        <v>0.2143151045409439</v>
+        <v>0.1860262794221796</v>
       </c>
       <c r="E13">
-        <v>0.1413181578172313</v>
+        <v>0.1632901288358077</v>
       </c>
       <c r="F13">
-        <v>0.9836188866527777</v>
+        <v>1.588195633595532</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1306683593745177</v>
+        <v>0.1870326193460699</v>
       </c>
       <c r="K13">
-        <v>1.478175696736997</v>
+        <v>0.5232735295835766</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5254781077276363</v>
+        <v>0.2844694974982929</v>
       </c>
       <c r="N13">
-        <v>0.7289448405020282</v>
+        <v>1.858537032341656</v>
       </c>
       <c r="O13">
-        <v>2.195704239491477</v>
+        <v>3.903603092176468</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.441764466006333</v>
+        <v>0.5594088600862221</v>
       </c>
       <c r="C14">
-        <v>0.1598038781895212</v>
+        <v>0.04692319818987301</v>
       </c>
       <c r="D14">
-        <v>0.2109014614355971</v>
+        <v>0.1852234487266742</v>
       </c>
       <c r="E14">
-        <v>0.1393977132851738</v>
+        <v>0.1629280023268684</v>
       </c>
       <c r="F14">
-        <v>0.9754788056844177</v>
+        <v>1.587836771368302</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1292540579685308</v>
+        <v>0.1868584216385401</v>
       </c>
       <c r="K14">
-        <v>1.451861078890431</v>
+        <v>0.5157621511336004</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5162829217066758</v>
+        <v>0.2820781201698352</v>
       </c>
       <c r="N14">
-        <v>0.7368018552020379</v>
+        <v>1.861856209151052</v>
       </c>
       <c r="O14">
-        <v>2.182318090321957</v>
+        <v>3.904630662224463</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.425721143659871</v>
+        <v>0.554908504442011</v>
       </c>
       <c r="C15">
-        <v>0.1581810811890136</v>
+        <v>0.04643044494785897</v>
       </c>
       <c r="D15">
-        <v>0.2088137533763046</v>
+        <v>0.1847329536414719</v>
       </c>
       <c r="E15">
-        <v>0.138224756343444</v>
+        <v>0.1627074793407886</v>
       </c>
       <c r="F15">
-        <v>0.9705314767294766</v>
+        <v>1.587631333247458</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1283920285604481</v>
+        <v>0.1867533133869941</v>
       </c>
       <c r="K15">
-        <v>1.435756246622731</v>
+        <v>0.5111622845591626</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5106581937317785</v>
+        <v>0.2806151527934233</v>
       </c>
       <c r="N15">
-        <v>0.7416424730590743</v>
+        <v>1.863900874579434</v>
       </c>
       <c r="O15">
-        <v>2.174217948784673</v>
+        <v>3.905296300491443</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.334009941297154</v>
+        <v>0.5291506272581614</v>
       </c>
       <c r="C16">
-        <v>0.148892121493617</v>
+        <v>0.04360352285118552</v>
       </c>
       <c r="D16">
-        <v>0.1968979872026182</v>
+        <v>0.1819415350629896</v>
       </c>
       <c r="E16">
-        <v>0.1315531192348516</v>
+        <v>0.1614635560184574</v>
       </c>
       <c r="F16">
-        <v>0.9427579085674438</v>
+        <v>1.586674497464969</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1235156976428797</v>
+        <v>0.1861754135485754</v>
       </c>
       <c r="K16">
-        <v>1.34366275508097</v>
+        <v>0.4848190891079298</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4785363968934178</v>
+        <v>0.2722595150139</v>
       </c>
       <c r="N16">
-        <v>0.7698037967391986</v>
+        <v>1.875795390927875</v>
       </c>
       <c r="O16">
-        <v>2.129281356337827</v>
+        <v>3.909666114793794</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.277936957241394</v>
+        <v>0.5133778376961402</v>
       </c>
       <c r="C17">
-        <v>0.1432020141708392</v>
+        <v>0.04186652852810369</v>
       </c>
       <c r="D17">
-        <v>0.1896290931804856</v>
+        <v>0.1802464854931145</v>
       </c>
       <c r="E17">
-        <v>0.1275033387630344</v>
+        <v>0.160718157589951</v>
       </c>
       <c r="F17">
-        <v>0.9262184618622769</v>
+        <v>1.586284340195675</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1205790217852822</v>
+        <v>0.1858427130199445</v>
       </c>
       <c r="K17">
-        <v>1.287329123604906</v>
+        <v>0.4686737847660822</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4589246007229306</v>
+        <v>0.2671587682059311</v>
       </c>
       <c r="N17">
-        <v>0.7874487181038985</v>
+        <v>1.883250526598497</v>
       </c>
       <c r="O17">
-        <v>2.102994897018505</v>
+        <v>3.91284250561381</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.245749521627232</v>
+        <v>0.5043165094060953</v>
       </c>
       <c r="C18">
-        <v>0.1399318592973628</v>
+        <v>0.04086645505169884</v>
       </c>
       <c r="D18">
-        <v>0.1854625929824749</v>
+        <v>0.1792779602543675</v>
       </c>
       <c r="E18">
-        <v>0.1251891928694562</v>
+        <v>0.160295946141904</v>
       </c>
       <c r="F18">
-        <v>0.9168822577879894</v>
+        <v>1.586132314727166</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1189093001663508</v>
+        <v>0.1856593801114315</v>
       </c>
       <c r="K18">
-        <v>1.25498235286608</v>
+        <v>0.4593932557597498</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4476768380396692</v>
+        <v>0.264234260946445</v>
       </c>
       <c r="N18">
-        <v>0.7977302913080795</v>
+        <v>1.887596662243878</v>
       </c>
       <c r="O18">
-        <v>2.088330117739133</v>
+        <v>3.914851686231628</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.234861970100212</v>
+        <v>0.501250363722221</v>
       </c>
       <c r="C19">
-        <v>0.1388250555058903</v>
+        <v>0.04052767720364159</v>
       </c>
       <c r="D19">
-        <v>0.1840542910412353</v>
+        <v>0.1789511401285893</v>
       </c>
       <c r="E19">
-        <v>0.1244082107568474</v>
+        <v>0.1601541141165583</v>
       </c>
       <c r="F19">
-        <v>0.9137509574319722</v>
+        <v>1.586093277873005</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1183472186727172</v>
+        <v>0.1855986862522059</v>
       </c>
       <c r="K19">
-        <v>1.244039252971021</v>
+        <v>0.4562520439684192</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4438739153674334</v>
+        <v>0.2632456771700546</v>
       </c>
       <c r="N19">
-        <v>0.801233977225694</v>
+        <v>1.889078173374518</v>
       </c>
       <c r="O19">
-        <v>2.083441440727853</v>
+        <v>3.915563259257823</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.283899257383354</v>
+        <v>0.5150557678906864</v>
       </c>
       <c r="C20">
-        <v>0.1438074526153059</v>
+        <v>0.04205153845629184</v>
       </c>
       <c r="D20">
-        <v>0.1904013758804126</v>
+        <v>0.1804262623854953</v>
       </c>
       <c r="E20">
-        <v>0.1279328594575375</v>
+        <v>0.1607968318436406</v>
       </c>
       <c r="F20">
-        <v>0.9279606685221751</v>
+        <v>1.586318382851516</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1208896136904727</v>
+        <v>0.185877298909638</v>
       </c>
       <c r="K20">
-        <v>1.293320148907725</v>
+        <v>0.4703918810614596</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4610089081531328</v>
+        <v>0.2677007894574288</v>
       </c>
       <c r="N20">
-        <v>0.7855565904327051</v>
+        <v>1.882450897263004</v>
       </c>
       <c r="O20">
-        <v>2.105745739131748</v>
+        <v>3.912485517116608</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.449461875029783</v>
+        <v>0.5615674602411787</v>
       </c>
       <c r="C21">
-        <v>0.1605822577280236</v>
+        <v>0.04715943037781756</v>
       </c>
       <c r="D21">
-        <v>0.2119034503301833</v>
+        <v>0.1854589967501568</v>
       </c>
       <c r="E21">
-        <v>0.1399610881391311</v>
+        <v>0.1630340989143129</v>
       </c>
       <c r="F21">
-        <v>0.9778616404700244</v>
+        <v>1.587939182360145</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1296685779941953</v>
+        <v>0.1869092558190886</v>
       </c>
       <c r="K21">
-        <v>1.459587449833833</v>
+        <v>0.5179682030806703</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5189821768715248</v>
+        <v>0.2827801466404196</v>
       </c>
       <c r="N21">
-        <v>0.7344882137243829</v>
+        <v>1.860878874424428</v>
       </c>
       <c r="O21">
-        <v>2.186229145216174</v>
+        <v>3.904321291674819</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.558350943247092</v>
+        <v>0.5920578391317122</v>
       </c>
       <c r="C22">
-        <v>0.1715785321652987</v>
+        <v>0.05048845642076571</v>
       </c>
       <c r="D22">
-        <v>0.2260996933852937</v>
+        <v>0.1888047390519318</v>
       </c>
       <c r="E22">
-        <v>0.1479713512621963</v>
+        <v>0.1645540561624692</v>
       </c>
       <c r="F22">
-        <v>1.012189629741371</v>
+        <v>1.58964200491755</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1355952263049289</v>
+        <v>0.1876550141396507</v>
       </c>
       <c r="K22">
-        <v>1.568849281110346</v>
+        <v>0.549110400445727</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5572050502192099</v>
+        <v>0.2927170083948667</v>
       </c>
       <c r="N22">
-        <v>0.702356086514027</v>
+        <v>1.847298292990331</v>
       </c>
       <c r="O22">
-        <v>2.24322834989357</v>
+        <v>3.900606853225469</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.500166525046353</v>
+        <v>0.5757762764706342</v>
       </c>
       <c r="C23">
-        <v>0.1657061184300943</v>
+        <v>0.04871255924835793</v>
       </c>
       <c r="D23">
-        <v>0.2185089965189917</v>
+        <v>0.1870139088177751</v>
       </c>
       <c r="E23">
-        <v>0.1436817769293057</v>
+        <v>0.1637375547856728</v>
       </c>
       <c r="F23">
-        <v>0.9937041760038881</v>
+        <v>1.588674342392991</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1324139277011867</v>
+        <v>0.1872504718325132</v>
       </c>
       <c r="K23">
-        <v>1.510474137339514</v>
+        <v>0.5324849734141992</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5367719398022857</v>
+        <v>0.2874061097376241</v>
       </c>
       <c r="N23">
-        <v>0.7193886338425237</v>
+        <v>1.854499096173436</v>
       </c>
       <c r="O23">
-        <v>2.212386613673914</v>
+        <v>3.902441020758346</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.281203547990998</v>
+        <v>0.5142971548700643</v>
       </c>
       <c r="C24">
-        <v>0.1435337303713595</v>
+        <v>0.04196789998734118</v>
       </c>
       <c r="D24">
-        <v>0.1900521881541408</v>
+        <v>0.1803449666153227</v>
       </c>
       <c r="E24">
-        <v>0.1277386293006018</v>
+        <v>0.1607612434994579</v>
       </c>
       <c r="F24">
-        <v>0.927172480971322</v>
+        <v>1.586302767004312</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1207491372956966</v>
+        <v>0.1858616378918541</v>
       </c>
       <c r="K24">
-        <v>1.290611482371986</v>
+        <v>0.4696151246368743</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4600665081573894</v>
+        <v>0.2674557167794305</v>
       </c>
       <c r="N24">
-        <v>0.7864115944560082</v>
+        <v>1.882812222543554</v>
       </c>
       <c r="O24">
-        <v>2.104500692868555</v>
+        <v>3.912646341469554</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.047416253705421</v>
+        <v>0.4483953042795861</v>
       </c>
       <c r="C25">
-        <v>0.1197136252643674</v>
+        <v>0.03465464304153443</v>
       </c>
       <c r="D25">
-        <v>0.1598985774288195</v>
+        <v>0.1733973179347004</v>
       </c>
       <c r="E25">
-        <v>0.1111146042189262</v>
+        <v>0.1578003222436521</v>
       </c>
       <c r="F25">
-        <v>0.8620972985121398</v>
+        <v>1.586512516800305</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1088991511923965</v>
+        <v>0.1846705573212404</v>
       </c>
       <c r="K25">
-        <v>1.055495899878338</v>
+        <v>0.4020242734504222</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3785438244600527</v>
+        <v>0.2462924803521531</v>
       </c>
       <c r="N25">
-        <v>0.8637478503487932</v>
+        <v>1.915575217445694</v>
       </c>
       <c r="O25">
-        <v>2.005326304540262</v>
+        <v>3.930621077509613</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_121/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_121/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4002345243970353</v>
+        <v>0.8767561954634857</v>
       </c>
       <c r="C2">
-        <v>0.02923790351773903</v>
+        <v>0.102208552506923</v>
       </c>
       <c r="D2">
-        <v>0.1684952640468538</v>
+        <v>0.1380814871881029</v>
       </c>
       <c r="E2">
-        <v>0.1558357427434167</v>
+        <v>0.09929593282087623</v>
       </c>
       <c r="F2">
-        <v>1.589051218795767</v>
+        <v>0.8192372146985676</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1840581092675535</v>
+        <v>0.1007206253599193</v>
       </c>
       <c r="K2">
-        <v>0.3524572108632924</v>
+        <v>0.883570532506468</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2310193804042413</v>
+        <v>0.3193299365818874</v>
       </c>
       <c r="N2">
-        <v>1.941613291518943</v>
+        <v>0.9247310960060915</v>
       </c>
       <c r="O2">
-        <v>3.949852420747902</v>
+        <v>1.945353665385284</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3678260096117185</v>
+        <v>0.7617518386747122</v>
       </c>
       <c r="C3">
-        <v>0.02554740063324346</v>
+        <v>0.09034400476853932</v>
       </c>
       <c r="D3">
-        <v>0.1653073817915782</v>
+        <v>0.1234987968370973</v>
       </c>
       <c r="E3">
-        <v>0.154639316785449</v>
+        <v>0.09151641843213199</v>
       </c>
       <c r="F3">
-        <v>1.592261207634138</v>
+        <v>0.7930223516576689</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1838083673130768</v>
+        <v>0.09548066561076496</v>
       </c>
       <c r="K3">
-        <v>0.3189940532912203</v>
+        <v>0.7675394486578284</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2208632601735161</v>
+        <v>0.2795985678679145</v>
       </c>
       <c r="N3">
-        <v>1.960455524992244</v>
+        <v>0.9684449836921525</v>
       </c>
       <c r="O3">
-        <v>3.966629397327239</v>
+        <v>1.912049924261623</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.348042742285628</v>
+        <v>0.6913802399800488</v>
       </c>
       <c r="C4">
-        <v>0.02327198865255298</v>
+        <v>0.08305195227268314</v>
       </c>
       <c r="D4">
-        <v>0.1634166907768702</v>
+        <v>0.1146337808658302</v>
       </c>
       <c r="E4">
-        <v>0.1539715075598131</v>
+        <v>0.08684321662613925</v>
       </c>
       <c r="F4">
-        <v>1.59496774858335</v>
+        <v>0.778224374865836</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1837366976299393</v>
+        <v>0.09240088362573573</v>
       </c>
       <c r="K4">
-        <v>0.2985130855273468</v>
+        <v>0.6964572113007819</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2147240888940054</v>
+        <v>0.2553673037791206</v>
       </c>
       <c r="N4">
-        <v>1.972615078615124</v>
+        <v>0.9964196806609156</v>
       </c>
       <c r="O4">
-        <v>3.978778437857088</v>
+        <v>1.894975864148421</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3400104637549646</v>
+        <v>0.6627531146758656</v>
       </c>
       <c r="C5">
-        <v>0.02234241728484676</v>
+        <v>0.0800777116444209</v>
       </c>
       <c r="D5">
-        <v>0.1626630749417899</v>
+        <v>0.1110420204927891</v>
       </c>
       <c r="E5">
-        <v>0.1537162120047739</v>
+        <v>0.08496347892728551</v>
       </c>
       <c r="F5">
-        <v>1.596255840223357</v>
+        <v>0.7725066788027561</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1837280565282029</v>
+        <v>0.09117880999456673</v>
       </c>
       <c r="K5">
-        <v>0.2901838747440024</v>
+        <v>0.6675207963176319</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2122468196736911</v>
+        <v>0.2455296841864651</v>
       </c>
       <c r="N5">
-        <v>1.977718665748937</v>
+        <v>1.008098691272479</v>
       </c>
       <c r="O5">
-        <v>3.98419421570226</v>
+        <v>1.88883208241306</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.338678509479081</v>
+        <v>0.658002307605642</v>
       </c>
       <c r="C6">
-        <v>0.02218792381748358</v>
+        <v>0.07958365566707926</v>
       </c>
       <c r="D6">
-        <v>0.1625389582756469</v>
+        <v>0.1104468247558827</v>
       </c>
       <c r="E6">
-        <v>0.1536748389023401</v>
+        <v>0.08465279826405947</v>
       </c>
       <c r="F6">
-        <v>1.596480915109083</v>
+        <v>0.771575748349079</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1837278645595859</v>
+        <v>0.0909778301844284</v>
       </c>
       <c r="K6">
-        <v>0.2888018531401286</v>
+        <v>0.6627174558946933</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2118369553211537</v>
+        <v>0.2438982538829713</v>
       </c>
       <c r="N6">
-        <v>1.978575080459959</v>
+        <v>1.010054665513259</v>
       </c>
       <c r="O6">
-        <v>3.985121591112929</v>
+        <v>1.887860098758949</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3479342958412701</v>
+        <v>0.6909939765804722</v>
       </c>
       <c r="C7">
-        <v>0.02325946146797264</v>
+        <v>0.08301185254155996</v>
       </c>
       <c r="D7">
-        <v>0.1634064588824202</v>
+        <v>0.1145852588544329</v>
       </c>
       <c r="E7">
-        <v>0.1539679963023488</v>
+        <v>0.0868177678825397</v>
       </c>
       <c r="F7">
-        <v>1.594984370313128</v>
+        <v>0.7781460160937286</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.183736497789539</v>
+        <v>0.0923842709503333</v>
       </c>
       <c r="K7">
-        <v>0.2984006856286925</v>
+        <v>0.696066855851285</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2146905801785195</v>
+        <v>0.2552344867993419</v>
       </c>
       <c r="N7">
-        <v>1.9726833061952</v>
+        <v>0.9965760656952733</v>
       </c>
       <c r="O7">
-        <v>3.978849594025604</v>
+        <v>1.894889755411313</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3890363294032682</v>
+        <v>0.8370458148089597</v>
       </c>
       <c r="C8">
-        <v>0.02796740286041199</v>
+        <v>0.09811860375037895</v>
       </c>
       <c r="D8">
-        <v>0.1673822942558871</v>
+        <v>0.1330339957370938</v>
       </c>
       <c r="E8">
-        <v>0.1554093764510824</v>
+        <v>0.09659122981895862</v>
       </c>
       <c r="F8">
-        <v>1.590005457046161</v>
+        <v>0.8099204005042111</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.183955063070151</v>
+        <v>0.09888432628720523</v>
       </c>
       <c r="K8">
-        <v>0.3409057801355004</v>
+        <v>0.8435230746949287</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2274975727689679</v>
+        <v>0.3055937962883419</v>
       </c>
       <c r="N8">
-        <v>1.94798758287069</v>
+        <v>0.9395644866653017</v>
       </c>
       <c r="O8">
-        <v>3.955253747855977</v>
+        <v>1.93314884687581</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4705386873024793</v>
+        <v>1.125901105336396</v>
       </c>
       <c r="C9">
-        <v>0.03712315462128402</v>
+        <v>0.1277291320980254</v>
       </c>
       <c r="D9">
-        <v>0.1757046279796555</v>
+        <v>0.16999090677335</v>
       </c>
       <c r="E9">
-        <v>0.1587643007657995</v>
+        <v>0.1166443793642635</v>
       </c>
       <c r="F9">
-        <v>1.586071765778328</v>
+        <v>0.8831880497787523</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.185030718789605</v>
+        <v>0.1128006031125324</v>
       </c>
       <c r="K9">
-        <v>0.4247618543170972</v>
+        <v>1.134474167314892</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.2533735112605697</v>
+        <v>0.4058638957179568</v>
       </c>
       <c r="N9">
-        <v>1.904241703089235</v>
+        <v>0.8370503741588031</v>
       </c>
       <c r="O9">
-        <v>3.92363511658138</v>
+        <v>2.036594811870401</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5309518586556692</v>
+        <v>1.340417335307023</v>
       </c>
       <c r="C10">
-        <v>0.04380158918951338</v>
+        <v>0.1495417914812123</v>
       </c>
       <c r="D10">
-        <v>0.1821358201214025</v>
+        <v>0.1977294172323809</v>
       </c>
       <c r="E10">
-        <v>0.1615494938844044</v>
+        <v>0.1320173303581882</v>
       </c>
       <c r="F10">
-        <v>1.586728821723739</v>
+        <v>0.94466959933699</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1862144641841397</v>
+        <v>0.1238534728933161</v>
       </c>
       <c r="K10">
-        <v>0.4866621576779266</v>
+        <v>1.350098601420257</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.2728428026373919</v>
+        <v>0.4807787817735587</v>
       </c>
       <c r="N10">
-        <v>1.874952586932143</v>
+        <v>0.7678085731865609</v>
       </c>
       <c r="O10">
-        <v>3.90932835186797</v>
+        <v>2.132343567484128</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5585481322935095</v>
+        <v>1.438695576783147</v>
       </c>
       <c r="C11">
-        <v>0.04682898100931254</v>
+        <v>0.1594935053711453</v>
       </c>
       <c r="D11">
-        <v>0.1851295761479719</v>
+        <v>0.2105020366138461</v>
       </c>
       <c r="E11">
-        <v>0.1628857550421579</v>
+        <v>0.1391732093928155</v>
       </c>
       <c r="F11">
-        <v>1.587796632561066</v>
+        <v>0.9745304423594092</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1868382272289253</v>
+        <v>0.1290889597862233</v>
       </c>
       <c r="K11">
-        <v>0.5148824520861126</v>
+        <v>1.448780543723586</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.2817982479464192</v>
+        <v>0.515206855690316</v>
       </c>
       <c r="N11">
-        <v>1.862246525303703</v>
+        <v>0.7377258764040198</v>
       </c>
       <c r="O11">
-        <v>3.904755804067861</v>
+        <v>2.18076324085834</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5690141187568827</v>
+        <v>1.47602738568861</v>
       </c>
       <c r="C12">
-        <v>0.04797380137172524</v>
+        <v>0.1632675377573491</v>
       </c>
       <c r="D12">
-        <v>0.1862729574668691</v>
+        <v>0.2153631560571938</v>
       </c>
       <c r="E12">
-        <v>0.1634016835525749</v>
+        <v>0.1419083917815662</v>
       </c>
       <c r="F12">
-        <v>1.588311408281854</v>
+        <v>0.9861305115758512</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.187086669728437</v>
+        <v>0.1311037547898621</v>
       </c>
       <c r="K12">
-        <v>0.5255771964204143</v>
+        <v>1.486250211273727</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.2852035000611934</v>
+        <v>0.5283007423665467</v>
       </c>
       <c r="N12">
-        <v>1.857523878761639</v>
+        <v>0.7265468428672195</v>
       </c>
       <c r="O12">
-        <v>3.903302457282109</v>
+        <v>2.199848884721234</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5667593834730269</v>
+        <v>1.467981884468827</v>
       </c>
       <c r="C13">
-        <v>0.04772731527637575</v>
+        <v>0.1624544633835967</v>
       </c>
       <c r="D13">
-        <v>0.1860262794221796</v>
+        <v>0.2143151045411287</v>
       </c>
       <c r="E13">
-        <v>0.1632901288358077</v>
+        <v>0.1413181578172207</v>
       </c>
       <c r="F13">
-        <v>1.588195633595532</v>
+        <v>0.9836188866527635</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1870326193460699</v>
+        <v>0.130668359374539</v>
       </c>
       <c r="K13">
-        <v>0.5232735295835766</v>
+        <v>1.478175696737026</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.2844694974982929</v>
+        <v>0.5254781077276576</v>
       </c>
       <c r="N13">
-        <v>1.858537032341656</v>
+        <v>0.7289448405020167</v>
       </c>
       <c r="O13">
-        <v>3.903603092176468</v>
+        <v>2.195704239491448</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5594088600862221</v>
+        <v>1.44176446600639</v>
       </c>
       <c r="C14">
-        <v>0.04692319818987301</v>
+        <v>0.159803878189777</v>
       </c>
       <c r="D14">
-        <v>0.1852234487266742</v>
+        <v>0.2109014614358244</v>
       </c>
       <c r="E14">
-        <v>0.1629280023268684</v>
+        <v>0.1393977132851951</v>
       </c>
       <c r="F14">
-        <v>1.587836771368302</v>
+        <v>0.9754788056844035</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1868584216385401</v>
+        <v>0.1292540579686232</v>
       </c>
       <c r="K14">
-        <v>0.5157621511336004</v>
+        <v>1.451861078890403</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.2820781201698352</v>
+        <v>0.51628292170669</v>
       </c>
       <c r="N14">
-        <v>1.861856209151052</v>
+        <v>0.7368018552020379</v>
       </c>
       <c r="O14">
-        <v>3.904630662224463</v>
+        <v>2.182318090321928</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.554908504442011</v>
+        <v>1.425721143659757</v>
       </c>
       <c r="C15">
-        <v>0.04643044494785897</v>
+        <v>0.1581810811887721</v>
       </c>
       <c r="D15">
-        <v>0.1847329536414719</v>
+        <v>0.2088137533764751</v>
       </c>
       <c r="E15">
-        <v>0.1627074793407886</v>
+        <v>0.1382247563434582</v>
       </c>
       <c r="F15">
-        <v>1.587631333247458</v>
+        <v>0.970531476729505</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1867533133869941</v>
+        <v>0.1283920285603415</v>
       </c>
       <c r="K15">
-        <v>0.5111622845591626</v>
+        <v>1.435756246622759</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.2806151527934233</v>
+        <v>0.5106581937317856</v>
       </c>
       <c r="N15">
-        <v>1.863900874579434</v>
+        <v>0.7416424730590743</v>
       </c>
       <c r="O15">
-        <v>3.905296300491443</v>
+        <v>2.174217948784701</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5291506272581614</v>
+        <v>1.33400994129704</v>
       </c>
       <c r="C16">
-        <v>0.04360352285118552</v>
+        <v>0.148892121493617</v>
       </c>
       <c r="D16">
-        <v>0.1819415350629896</v>
+        <v>0.1968979872025045</v>
       </c>
       <c r="E16">
-        <v>0.1614635560184574</v>
+        <v>0.1315531192348622</v>
       </c>
       <c r="F16">
-        <v>1.586674497464969</v>
+        <v>0.9427579085674438</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1861754135485754</v>
+        <v>0.1235156976429437</v>
       </c>
       <c r="K16">
-        <v>0.4848190891079298</v>
+        <v>1.343662755080942</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.2722595150139</v>
+        <v>0.4785363968934178</v>
       </c>
       <c r="N16">
-        <v>1.875795390927875</v>
+        <v>0.7698037967391862</v>
       </c>
       <c r="O16">
-        <v>3.909666114793794</v>
+        <v>2.129281356337771</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5133778376961402</v>
+        <v>1.277936957241394</v>
       </c>
       <c r="C17">
-        <v>0.04186652852810369</v>
+        <v>0.1432020141703845</v>
       </c>
       <c r="D17">
-        <v>0.1802464854931145</v>
+        <v>0.1896290931806135</v>
       </c>
       <c r="E17">
-        <v>0.160718157589951</v>
+        <v>0.1275033387630344</v>
       </c>
       <c r="F17">
-        <v>1.586284340195675</v>
+        <v>0.9262184618622769</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1858427130199445</v>
+        <v>0.1205790217852467</v>
       </c>
       <c r="K17">
-        <v>0.4686737847660822</v>
+        <v>1.287329123604849</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.2671587682059311</v>
+        <v>0.4589246007229164</v>
       </c>
       <c r="N17">
-        <v>1.883250526598497</v>
+        <v>0.7874487181038976</v>
       </c>
       <c r="O17">
-        <v>3.91284250561381</v>
+        <v>2.102994897018448</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5043165094060953</v>
+        <v>1.245749521627374</v>
       </c>
       <c r="C18">
-        <v>0.04086645505169884</v>
+        <v>0.1399318592973628</v>
       </c>
       <c r="D18">
-        <v>0.1792779602543675</v>
+        <v>0.1854625929824891</v>
       </c>
       <c r="E18">
-        <v>0.160295946141904</v>
+        <v>0.125189192869442</v>
       </c>
       <c r="F18">
-        <v>1.586132314727166</v>
+        <v>0.9168822577880178</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1856593801114315</v>
+        <v>0.1189093001663295</v>
       </c>
       <c r="K18">
-        <v>0.4593932557597498</v>
+        <v>1.25498235286608</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.264234260946445</v>
+        <v>0.4476768380396692</v>
       </c>
       <c r="N18">
-        <v>1.887596662243878</v>
+        <v>0.7977302913081408</v>
       </c>
       <c r="O18">
-        <v>3.914851686231628</v>
+        <v>2.088330117739133</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.501250363722221</v>
+        <v>1.234861970100184</v>
       </c>
       <c r="C19">
-        <v>0.04052767720364159</v>
+        <v>0.1388250555055208</v>
       </c>
       <c r="D19">
-        <v>0.1789511401285893</v>
+        <v>0.1840542910411074</v>
       </c>
       <c r="E19">
-        <v>0.1601541141165583</v>
+        <v>0.1244082107568332</v>
       </c>
       <c r="F19">
-        <v>1.586093277873005</v>
+        <v>0.9137509574319438</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1855986862522059</v>
+        <v>0.1183472186727954</v>
       </c>
       <c r="K19">
-        <v>0.4562520439684192</v>
+        <v>1.24403925297122</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.2632456771700546</v>
+        <v>0.4438739153674547</v>
       </c>
       <c r="N19">
-        <v>1.889078173374518</v>
+        <v>0.8012339772256878</v>
       </c>
       <c r="O19">
-        <v>3.915563259257823</v>
+        <v>2.083441440727853</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5150557678906864</v>
+        <v>1.283899257383325</v>
       </c>
       <c r="C20">
-        <v>0.04205153845629184</v>
+        <v>0.1438074526153201</v>
       </c>
       <c r="D20">
-        <v>0.1804262623854953</v>
+        <v>0.1904013758802421</v>
       </c>
       <c r="E20">
-        <v>0.1607968318436406</v>
+        <v>0.1279328594575446</v>
       </c>
       <c r="F20">
-        <v>1.586318382851516</v>
+        <v>0.9279606685221609</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.185877298909638</v>
+        <v>0.1208896136905011</v>
       </c>
       <c r="K20">
-        <v>0.4703918810614596</v>
+        <v>1.29332014890764</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.2677007894574288</v>
+        <v>0.4610089081531328</v>
       </c>
       <c r="N20">
-        <v>1.882450897263004</v>
+        <v>0.7855565904326518</v>
       </c>
       <c r="O20">
-        <v>3.912485517116608</v>
+        <v>2.105745739131692</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5615674602411787</v>
+        <v>1.449461875029669</v>
       </c>
       <c r="C21">
-        <v>0.04715943037781756</v>
+        <v>0.1605822577275688</v>
       </c>
       <c r="D21">
-        <v>0.1854589967501568</v>
+        <v>0.2119034503300696</v>
       </c>
       <c r="E21">
-        <v>0.1630340989143129</v>
+        <v>0.1399610881391276</v>
       </c>
       <c r="F21">
-        <v>1.587939182360145</v>
+        <v>0.9778616404700244</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1869092558190886</v>
+        <v>0.1296685779941882</v>
       </c>
       <c r="K21">
-        <v>0.5179682030806703</v>
+        <v>1.459587449833833</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.2827801466404196</v>
+        <v>0.5189821768715319</v>
       </c>
       <c r="N21">
-        <v>1.860878874424428</v>
+        <v>0.734488213724366</v>
       </c>
       <c r="O21">
-        <v>3.904321291674819</v>
+        <v>2.186229145216117</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5920578391317122</v>
+        <v>1.558350943247291</v>
       </c>
       <c r="C22">
-        <v>0.05048845642076571</v>
+        <v>0.1715785321649577</v>
       </c>
       <c r="D22">
-        <v>0.1888047390519318</v>
+        <v>0.2260996933852937</v>
       </c>
       <c r="E22">
-        <v>0.1645540561624692</v>
+        <v>0.1479713512621998</v>
       </c>
       <c r="F22">
-        <v>1.58964200491755</v>
+        <v>1.012189629741357</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1876550141396507</v>
+        <v>0.135595226304936</v>
       </c>
       <c r="K22">
-        <v>0.549110400445727</v>
+        <v>1.568849281110346</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.2927170083948667</v>
+        <v>0.5572050502191956</v>
       </c>
       <c r="N22">
-        <v>1.847298292990331</v>
+        <v>0.702356086514019</v>
       </c>
       <c r="O22">
-        <v>3.900606853225469</v>
+        <v>2.243228349893599</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5757762764706342</v>
+        <v>1.500166525046438</v>
       </c>
       <c r="C23">
-        <v>0.04871255924835793</v>
+        <v>0.1657061184301938</v>
       </c>
       <c r="D23">
-        <v>0.1870139088177751</v>
+        <v>0.2185089965190343</v>
       </c>
       <c r="E23">
-        <v>0.1637375547856728</v>
+        <v>0.1436817769292809</v>
       </c>
       <c r="F23">
-        <v>1.588674342392991</v>
+        <v>0.9937041760038881</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1872504718325132</v>
+        <v>0.1324139277012293</v>
       </c>
       <c r="K23">
-        <v>0.5324849734141992</v>
+        <v>1.510474137339628</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.2874061097376241</v>
+        <v>0.5367719398022714</v>
       </c>
       <c r="N23">
-        <v>1.854499096173436</v>
+        <v>0.7193886338425219</v>
       </c>
       <c r="O23">
-        <v>3.902441020758346</v>
+        <v>2.212386613673857</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5142971548700643</v>
+        <v>1.281203547990998</v>
       </c>
       <c r="C24">
-        <v>0.04196789998734118</v>
+        <v>0.1435337303712885</v>
       </c>
       <c r="D24">
-        <v>0.1803449666153227</v>
+        <v>0.1900521881541408</v>
       </c>
       <c r="E24">
-        <v>0.1607612434994579</v>
+        <v>0.1277386293006018</v>
       </c>
       <c r="F24">
-        <v>1.586302767004312</v>
+        <v>0.9271724809713078</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1858616378918541</v>
+        <v>0.1207491372956966</v>
       </c>
       <c r="K24">
-        <v>0.4696151246368743</v>
+        <v>1.290611482371929</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.2674557167794305</v>
+        <v>0.4600665081573965</v>
       </c>
       <c r="N24">
-        <v>1.882812222543554</v>
+        <v>0.7864115944560668</v>
       </c>
       <c r="O24">
-        <v>3.912646341469554</v>
+        <v>2.104500692868498</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4483953042795861</v>
+        <v>1.04741625370545</v>
       </c>
       <c r="C25">
-        <v>0.03465464304153443</v>
+        <v>0.1197136252645379</v>
       </c>
       <c r="D25">
-        <v>0.1733973179347004</v>
+        <v>0.1598985774285353</v>
       </c>
       <c r="E25">
-        <v>0.1578003222436521</v>
+        <v>0.1111146042189084</v>
       </c>
       <c r="F25">
-        <v>1.586512516800305</v>
+        <v>0.8620972985121398</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1846705573212404</v>
+        <v>0.1088991511923396</v>
       </c>
       <c r="K25">
-        <v>0.4020242734504222</v>
+        <v>1.055495899878395</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2462924803521531</v>
+        <v>0.3785438244600456</v>
       </c>
       <c r="N25">
-        <v>1.915575217445694</v>
+        <v>0.8637478503487293</v>
       </c>
       <c r="O25">
-        <v>3.930621077509613</v>
+        <v>2.00532630454012</v>
       </c>
     </row>
   </sheetData>
